--- a/output/fit_clients/fit_round_22.xlsx
+++ b/output/fit_clients/fit_round_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9049866267.701401</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004490317975421882</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.551106443269858</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.899877253188249</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.551106443269858</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6772014784.063594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00624054827588316</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.186043332237706</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9386307295942872</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.186043332237706</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5596215473.431867</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.00371452564348787</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.837488042396094</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.997517960511243</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.837488042396094</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3176260294.185125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005341573830034675</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.957776087116708</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.349244216181369</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.104426547193759</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.349244216181369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5403604819.649649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002804797941606865</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.314085793414185</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8592802527084461</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.314085793414185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6489539387.381039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001035891497472306</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.849302846351346</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9922397151941403</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.849302846351346</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6015866223.059298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002624547157230571</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.743485554560857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9636299485902469</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.743485554560857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5779455047.255879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005201767297151979</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.108145450547992</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9671981884068239</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-8.108145450547992</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3965347461.713833</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005150173674666565</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.182606208259392</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9672850035203188</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.182606208259392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3509233442.142111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009541710507603603</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.8136975174897856</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.976941588255659</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9039647948990834</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.976941588255659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6216746913.295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001848231033906032</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.303968970797052</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9919432705812995</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.303968970797052</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4958726413.915814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004588697841327493</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5028719679457616</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.440833338944776</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9099797276593068</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.440833338944776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5635064214.498502</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002809503231139605</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.463345130531255</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8477629606904729</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.463345130531255</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7470430484.40626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003589858302349741</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.472303986987315</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9908839317623093</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.472303986987315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7670105250.596349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003462019814990241</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.280705438297172</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9182695147158286</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.280705438297172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5763248377.942042</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002611976552517825</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.799548841413885</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9879968163417227</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.799548841413885</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5170023286.571681</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009162369366649247</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.192284947543813</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.999243168833898</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.192284947543813</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3139746936.766207</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001798395341324036</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.792522231208655</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9094895039399793</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.792522231208655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5943344479.31199</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001048773594262759</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.772087392122108</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8464240127229514</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.772087392122108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7238777462.919674</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.006013811646574167</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.394317644516729</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8102120743668244</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.394317644516729</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4670813467.635129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004536587146531774</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.343895585529346</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9158875409268313</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.343895585529346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6222109316.92257</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001560361128761275</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.721716232291389</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8943516322055268</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.721716232291389</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7344977491.317913</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003634444141771801</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.347059449370592</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.064386209688906</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-8.347059449370592</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6175270678.149139</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003034964346955762</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.846752187061794</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9094895039399793</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.846752187061794</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5045168053.604553</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001046525598895773</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8869732582352304</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.304119743653427</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.048112954733776</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.304119743653427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7938571689.20161</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003821780384176879</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.810466182942186</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.4767312946227962</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.810466182942186</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5593566371.903699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004669435564842192</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.499282477087676</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8673579484545885</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.499282477087676</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6332096200.456054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001634445643469517</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.940124484768434</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.009407533344243</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.940124484768434</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7603536484.738434</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003335733807593837</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.342624513184914</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.861282405261707</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.342624513184914</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6381816164.510967</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002541416478558892</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.859707355477461</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9687605001221817</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.859707355477461</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4633971607.026349</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009042742052371907</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.073500137204122</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9255149698152274</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.073500137204122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6481717640.907943</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003223452141532598</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.305784788722195</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8443866296876822</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.305784788722195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6262743246.577309</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005434152327467057</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6469690846242702</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>8.387198453885528</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8894339475619798</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-8.387198453885528</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6130268095.363373</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002419121097572297</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.874240440094534</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9890592474306944</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-5.874240440094534</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5654832480.759581</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003493915672948492</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.783019667283112</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.004944488371331</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.783019667283112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5727521054.090685</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004459568034516229</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4558369076351756</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.645828687309335</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.8296173701863809</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.645828687309335</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4302336218.175958</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004416347956400258</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.129882306085446</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9251063812433663</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.129882306085446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5341822986.929248</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002364765072123445</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.074816244773129</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9174457020372784</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.074816244773129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6281062584.104381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.0033886205861153</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.025207895498874</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.022844017492603</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-5.025207895498874</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5644207284.195498</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001023739332919428</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.232690355456246</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9273741360803531</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.232690355456246</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5539939062.047262</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004287215703421655</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.2262991960594338</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.109486724926781</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.5125071754809519</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.109486724926781</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6256282375.898346</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005043521839961315</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.331349945049411</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9352679771372092</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.331349945049411</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5892333316.366591</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001727467265659568</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.906570363035099</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9468300745440728</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.906570363035099</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5931263416.67061</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001052547237534293</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.117708938337654</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9926206703184419</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.117708938337654</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7782750024.946753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003906648903956383</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7661175227017737</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.497601923031161</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9377602670550692</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.497601923031161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9078991184.597448</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002227224864330021</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.128860085468802</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9136831827002586</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-4.128860085468802</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6343397270.972978</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002373942302432379</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.288123633151034</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.008658159587449</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.288123633151034</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5055837603.007833</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003427739053455309</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.360606648753039</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8294280516426223</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.360606648753039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8034962724.938033</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003657778874244402</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.907784340207257</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.018728590358217</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.907784340207257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3919734540.876675</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003599174582416501</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.540249051569638</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9360761050940762</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.540249051569638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6949565524.403061</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001992874598204074</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.144330871036954</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8664857328759565</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.144330871036954</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5562720252.58287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002265444979328079</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.226753389615202</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9363902364319695</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.226753389615202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6811266588.558482</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004839944446744861</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.148508692747332</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7997747925731684</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.148508692747332</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6360472660.749087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002904013134139594</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.777500806772001</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.238171460913854</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.777500806772001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5397318150.413257</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00271238152123996</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.916028350974922</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9719209956058649</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.916028350974922</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6222936463.667006</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004611623381039283</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.792389386957433</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8708865172052375</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.792389386957433</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5773321623.675436</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002688020232605643</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.080379421128566</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7784805364341347</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.080379421128566</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5134985673.02387</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004280249019709238</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9188719603642427</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.434805484158422</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.130044422727764</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.434805484158422</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4133295892.355928</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00310626196442777</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8661880966251444</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.664488552961823</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.047207642556353</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.664488552961823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6805281119.749879</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005967085840405</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.883564814067873</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9855701583808082</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.883564814067873</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6125766260.466641</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003575560617931035</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.792977741105068</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8915759797348857</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.792977741105068</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7240429515.100411</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005922748875638834</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.173914760749693</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9464306880729565</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.173914760749693</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5208900942.715879</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003644429439166764</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.794356131998915</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9235611447302882</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.794356131998915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7702198008.771196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00425882904152227</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.285488163119345</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.048199422719844</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.285488163119345</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5231101291.110534</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002833989216161899</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.822711758015283</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.896697169440316</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.822711758015283</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5723284890.977428</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004702778558590063</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.328177689083258</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9551790363919883</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.328177689083258</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7601980336.36591</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002853318414404296</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.653170667931815</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.735870291106552</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.653170667931815</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4666031722.249637</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001096538198603165</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.907772516294764</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9947345207627095</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.907772516294764</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5204216672.125121</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003475301733671947</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.651590821805828</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9144185592173761</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.651590821805828</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5262061269.791</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003960264822710051</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>8.193204129712031</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.882006745239526</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-8.193204129712031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7880772269.364325</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001598189175378295</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5192320444840617</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.877227502381092</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.028817004823259</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-5.877227502381092</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6280352504.442354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001124882510507044</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.86169884650737</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.003815220298668</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.86169884650737</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5382355853.115856</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003299670852012576</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.147856958464539</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8892169341542234</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-4.147856958464539</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7937987198.440051</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003160639612575119</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.31159746680308</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8115072958862322</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.31159746680308</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6251005412.127554</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002046991024000951</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0274244071523838</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.317714671468611</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.5177592717330166</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.317714671468611</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6263890291.309376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005327575604861082</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.919929574741969</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.022474323093506</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.919929574741969</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7677629249.212533</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004154000966814861</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.871559805652716</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9647192149256871</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.871559805652716</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6243939997.40055</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002049746601571267</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.134858092180544</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9508590803233773</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.134858092180544</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5527422525.467924</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002709638129262986</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2629350539852058</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.525711499459736</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.448362873687108</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.525711499459736</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4805949575.68457</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003765157548764353</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.166273867217743</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.028251191884256</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.166273867217743</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8271233365.124802</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004193259466473618</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.959429024877784</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9708398095837971</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.959429024877784</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9867100069.476065</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003412179702898686</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.9260334708159632</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.158603310673519</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.084110289396512</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.158603310673519</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5567316855.21222</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004033137121279539</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.184957564297139</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9855701583808082</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.184957564297139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4751014686.772284</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002346064589020165</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.727013819803426</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9243795073049212</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.727013819803426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5793585459.724834</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002380775778960332</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2120793059425999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.736106544634755</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.3937033882222634</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.736106544634755</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4097952777.085574</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001540871520227674</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.213569484203142</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9542548875911806</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.213569484203142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6954013377.061092</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003999321979518715</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.145096862740759</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8616238053642754</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.145096862740759</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5778518363.612322</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005151720739424688</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.891939775020871</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9345490067227182</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.891939775020871</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4964273412.820329</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002481100368341883</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.1787534853449105</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.141149310969715</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.3821499712563352</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.141149310969715</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7324284151.581422</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003809933482353095</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.747593808576071</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.858302000957158</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.747593808576071</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5188945471.270344</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.0035532661574941</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.860019048558121</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.029720877010334</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.860019048558121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5973277493.150424</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001884470368086256</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.489758188563057</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.898288618565298</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.489758188563057</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7531014993.805883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001391974740174459</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.292848301591082</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.074208016002412</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.292848301591082</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6332576281.360177</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002542310381870907</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.145709217590973</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9228330536795983</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.145709217590973</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6845605968.213228</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003382333642377056</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.279328465096031</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8951966976583744</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.279328465096031</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5098650157.774841</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003973602469312645</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9184714937510193</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.352828887318877</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.163754832695147</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.352828887318877</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7888576493.799827</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003176706469221966</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.603106757245048</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8485554670206209</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.603106757245048</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3116769474.56841</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005710699287701238</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.260333491884261</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9330194089110594</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.260333491884261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4352434900.20388</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002408507491966228</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.8695983616330922</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.404286426006004</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.002226878479563</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.404286426006004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7406065812.335529</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001113617468193368</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5978064610953381</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.071102756193071</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8908217467868155</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.071102756193071</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_22.xlsx
+++ b/output/fit_clients/fit_round_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9049866267.701401</v>
+        <v>1824358015.975686</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004490317975421882</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>0.105522308432357</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03718929867600748</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>912178979.7711619</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6772014784.063594</v>
+        <v>1990345223.109246</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00624054827588316</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1477421495908526</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03484844883843979</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="J3" t="n">
+        <v>995172649.8538221</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5596215473.431867</v>
+        <v>4315057357.395224</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00371452564348787</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1208187091913302</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03400336170480236</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2157528714.952585</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3176260294.185125</v>
+        <v>4173949647.572709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005341573830034675</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08382254539289161</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03827017869734391</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2086974815.8291</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2636829176.444459</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.125676989342304</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05312714200768733</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>469</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5403604819.649649</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002804797941606865</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+      <c r="J6" t="n">
+        <v>1318414548.68999</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6489539387.381039</v>
+        <v>2887925224.118647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001035891497472306</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>0.08587216908099198</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04605581964204283</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1443962587.44038</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6015866223.059298</v>
+        <v>3420372713.630985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002624547157230571</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+        <v>0.1516726616200994</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02692117097828999</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1710186457.059094</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5779455047.255879</v>
+        <v>1492507838.045179</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005201767297151979</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1603053384283409</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02637099228845916</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>746254015.7920649</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3965347461.713833</v>
+        <v>5071153780.688161</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005150173674666565</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1497753390275562</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04225666064403358</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2535576994.922821</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3509233442.142111</v>
+        <v>4246802304.317427</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009541710507603603</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1637093496539093</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03936172659995924</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2123401181.885665</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6216746913.295</v>
+        <v>2444676616.01138</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001848231033906032</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+        <v>0.1694469628525066</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04735859630918102</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1222338274.928058</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4958726413.915814</v>
+        <v>3472059816.843998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004588697841327493</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+        <v>0.07924141104918557</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02285546639237173</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1736029989.944254</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5635064214.498502</v>
+        <v>3601840590.910826</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002809503231139605</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+        <v>0.1472377620100964</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03714524734635002</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1800920285.993519</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7470430484.40626</v>
+        <v>1747376388.456784</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003589858302349741</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+        <v>0.09097933263120778</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03844868225381257</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>873688335.5646715</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7670105250.596349</v>
+        <v>2590450782.781243</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003462019814990241</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
+        <v>0.1016485015349504</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03481415613860801</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1295225413.86374</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5763248377.942042</v>
+        <v>4432652330.252021</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002611976552517825</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1729856475419264</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0457593156549451</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2216326178.102166</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5170023286.571681</v>
+        <v>2622411054.854692</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009162369366649247</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
+        <v>0.1793604436729479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03132380787857772</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1311205584.833263</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3139746936.766207</v>
+        <v>979167532.1170688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001798395341324036</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1818167623638358</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02546113966388028</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>489583789.9796287</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5943344479.31199</v>
+        <v>1799157426.21165</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001048773594262759</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1614005951512082</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03146886714928374</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>899578760.5900464</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7238777462.919674</v>
+        <v>2639319684.961504</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006013811646574167</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
+        <v>0.1015231019746171</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03123893416842437</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1319659817.101822</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3117228085.257858</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1170104676480655</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03899086039633009</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>6</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4670813467.635129</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004536587146531774</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="J22" t="n">
+        <v>1558614096.909921</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6222109316.92257</v>
+        <v>1458298758.690878</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001560361128761275</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>0.1476043900377219</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03309750171843582</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>729149372.0401893</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7344977491.317913</v>
+        <v>4026774854.570421</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003634444141771801</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1410465991114367</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02668580226007336</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2013387393.167045</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6175270678.149139</v>
+        <v>970403915.5652605</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003034964346955762</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
+        <v>0.1151832166866011</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02230537722427224</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>485202028.4258277</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5045168053.604553</v>
+        <v>1224427946.280731</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001046525598895773</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0909691911317817</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03166703652296002</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>612213999.8966008</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7938571689.20161</v>
+        <v>3834464139.232684</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003821780384176879</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1268195205347307</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01828704777042698</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1917232087.738851</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5593566371.903699</v>
+        <v>2784063436.823214</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004669435564842192</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>0.1148466182214032</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0375177329558756</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1392031710.651665</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6332096200.456054</v>
+        <v>3769266842.594271</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001634445643469517</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+        <v>0.1119195889768914</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04566429665036881</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1884633453.969026</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7603536484.738434</v>
+        <v>1868951541.772458</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003335733807593837</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
+        <v>0.1017764242729052</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02498240702255227</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>934475793.1603087</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6381816164.510967</v>
+        <v>1098211853.85031</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002541416478558892</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
+        <v>0.07223749887624202</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04005531703807548</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>549105902.1039209</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4633971607.026349</v>
+        <v>1526063266.449522</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009042742052371907</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08750738453560668</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03107444850824452</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>763031706.727597</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6481717640.907943</v>
+        <v>2355822931.290492</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003223452141532598</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
+        <v>0.1596598933878116</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06125935984993721</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1177911515.881056</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6262743246.577309</v>
+        <v>1083241607.85096</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005434152327467057</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
+        <v>0.09904000511251002</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02385052471610877</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>541620827.9261043</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6130268095.363373</v>
+        <v>929629732.1407329</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002419121097572297</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
+        <v>0.07472430503584701</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04229971844750684</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>464814899.8440632</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5654832480.759581</v>
+        <v>2176549608.138834</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003493915672948492</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
+        <v>0.1770581859027162</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01804752388471706</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1088274851.710488</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5727521054.090685</v>
+        <v>2529966171.576222</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004459568034516229</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.09561826129657146</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02886032009105784</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1264983185.724355</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4302336218.175958</v>
+        <v>2056622610.616339</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004416347956400258</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1199758696822829</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03009474923621394</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1028311275.703457</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5341822986.929248</v>
+        <v>2044881612.978887</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002364765072123445</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.119743648126067</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02791813105406302</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1022440793.961228</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6281062584.104381</v>
+        <v>1557455544.050824</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0033886205861153</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
+        <v>0.134247100716547</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05095939595373214</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>778727723.5741355</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5644207284.195498</v>
+        <v>2864565117.104509</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001023739332919428</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.101362241948661</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0449648590211251</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1432282547.992064</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5539939062.047262</v>
+        <v>3908270598.189208</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004287215703421655</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
+        <v>0.127157082437808</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03509262234723637</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1954135321.84323</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6256282375.898346</v>
+        <v>2758130050.668865</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005043521839961315</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
+        <v>0.1602924795659878</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01943012280465822</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1379065047.816155</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5892333316.366591</v>
+        <v>1568232506.209831</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001727467265659568</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
+        <v>0.09092780870211332</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03692966199200363</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>784116273.0707861</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5931263416.67061</v>
+        <v>1717843269.212508</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001052547237534293</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1875691855947174</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03671652905478621</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>858921596.7834284</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7782750024.946753</v>
+        <v>4167070363.535666</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003906648903956383</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
+        <v>0.1461240290297701</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06039611321941413</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2083535160.629105</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9078991184.597448</v>
+        <v>3477519569.21375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002227224864330021</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1828444411833155</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05730612325510913</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1738759753.838799</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6343397270.972978</v>
+        <v>4327482264.134003</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002373942302432379</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>0.1040444033963243</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02422641763146122</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2163741147.166934</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5055837603.007833</v>
+        <v>1332529202.614105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003427739053455309</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1892883215150227</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02854222133015847</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>666264659.0884987</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8034962724.938033</v>
+        <v>3969571178.281473</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003657778874244402</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1486764596137507</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04376474721195746</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>6</v>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1984785579.688609</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3919734540.876675</v>
+        <v>944613514.6322937</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003599174582416501</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.181407786790064</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04218508314113035</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>472306849.8621799</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6949565524.403061</v>
+        <v>3479951602.124217</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001992874598204074</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
+        <v>0.09828502063276126</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0500483507223936</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1739975887.905768</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5562720252.58287</v>
+        <v>2425871766.345638</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002265444979328079</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
+        <v>0.1577829655109649</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03407428529038819</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1212935954.975629</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6811266588.558482</v>
+        <v>3895595303.490436</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004839944446744861</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1530954097608447</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0343861397287931</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1947797707.374832</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6360472660.749087</v>
+        <v>3457099366.977532</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002904013134139594</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1579711183108451</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02883460542650028</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>7</v>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1728549634.221296</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5397318150.413257</v>
+        <v>1536804784.025558</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00271238152123996</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
+        <v>0.1235702060039421</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04974463067941719</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>768402428.5301505</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6222936463.667006</v>
+        <v>3871862212.474905</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004611623381039283</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
+        <v>0.1397815500896134</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02578559420779781</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1935931183.582341</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5773321623.675436</v>
+        <v>1887990771.094326</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002688020232605643</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.2017500020240696</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03824557277663922</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>943995381.0324106</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>458</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4700141549.31585</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.08714013586975006</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04736249499287272</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>6</v>
       </c>
-      <c r="D59" t="n">
-        <v>352</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5134985673.02387</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.004280249019709238</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+      <c r="J59" t="n">
+        <v>2350070716.602344</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4133295892.355928</v>
+        <v>3168509024.332435</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00310626196442777</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1560902878382779</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02769820355488625</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1584254599.900723</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6805281119.749879</v>
+        <v>3245142864.824588</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005967085840405</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
+        <v>0.1616652283889893</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02947030974563883</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1622571389.460245</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6125766260.466641</v>
+        <v>1617722422.333162</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003575560617931035</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1580148705049303</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03239323287771601</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>808861211.6584557</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7240429515.100411</v>
+        <v>3854268262.179287</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005922748875638834</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>0.07747669453648084</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04191279791028614</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1927134199.703135</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5208900942.715879</v>
+        <v>4316992464.292159</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003644429439166764</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1304139567851734</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02496828317456241</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2158496290.021906</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7702198008.771196</v>
+        <v>4815657725.92574</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00425882904152227</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>5</v>
+        <v>0.1451277395227201</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0270534704452236</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2407828832.639305</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5231101291.110534</v>
+        <v>4247755597.743593</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002833989216161899</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4</v>
+        <v>0.1559387309327483</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04030332078825397</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2123877785.454889</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5723284890.977428</v>
+        <v>2201586667.478419</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004702778558590063</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.08972755174591913</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04271557777610967</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1100793419.242821</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7601980336.36591</v>
+        <v>4947144651.518745</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002853318414404296</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
+        <v>0.1142604733280871</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04703028837607029</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2473572378.677603</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4666031722.249637</v>
+        <v>2060960386.084505</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001096538198603165</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.1733682371563822</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05795143815166624</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1030480205.6261</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5204216672.125121</v>
+        <v>2901321293.983859</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003475301733671947</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
+        <v>0.08772266789515576</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04954274446596518</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1450660617.312146</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5262061269.791</v>
+        <v>4788878633.093677</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003960264822710051</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1507793350137206</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02096046117802049</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2394439406.230098</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7880772269.364325</v>
+        <v>1375762039.171615</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001598189175378295</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.08061523637159253</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05119492075653749</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>687881066.3888171</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6280352504.442354</v>
+        <v>3303460965.159852</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001124882510507044</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.06925636714737698</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03836284510792888</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1651730450.570843</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5382355853.115856</v>
+        <v>3813753790.028858</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003299670852012576</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
+        <v>0.1313764090110597</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0329263875524162</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
         <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1906876889.816272</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7937987198.440051</v>
+        <v>2225725911.360212</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003160639612575119</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
+        <v>0.1082442431522232</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02463009814322493</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1112862898.359555</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6251005412.127554</v>
+        <v>3354152556.385835</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002046991024000951</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.08202852385891996</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02595541630217478</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1677076235.52635</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6263890291.309376</v>
+        <v>1612642591.077157</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005327575604861082</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
+        <v>0.1153316991139949</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02875421256524368</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>806321299.6198002</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7677629249.212533</v>
+        <v>3165360304.343349</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004154000966814861</v>
-      </c>
-      <c r="G78" t="b">
+        <v>0.1282753119265406</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04839428063654166</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>4</v>
+      <c r="I78" t="n">
+        <v>7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1582680177.396362</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6243939997.40055</v>
+        <v>1611248601.476867</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002049746601571267</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
+        <v>0.167132927836438</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0284319067230356</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>805624354.1486983</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3394260929.393935</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.08383052381667259</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03522932951123604</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5527422525.467924</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.002709638129262986</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1697130433.837165</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4805949575.68457</v>
+        <v>4011817208.148958</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003765157548764353</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
+        <v>0.1290651762251287</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02716092685418189</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2005908567.46706</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8271233365.124802</v>
+        <v>3567291103.045356</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004193259466473618</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
+        <v>0.1675347129776296</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02118552488166574</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1783645615.233357</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9867100069.476065</v>
+        <v>1821438797.522932</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003412179702898686</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>6</v>
+        <v>0.125004999260193</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03884171305901915</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>910719361.5892596</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5567316855.21222</v>
+        <v>2039118791.628395</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004033137121279539</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>6</v>
+        <v>0.1178165089432298</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0496539487899206</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1019559394.858738</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4751014686.772284</v>
+        <v>3139403239.350817</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002346064589020165</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1284878884477327</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0489295718741718</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1569701694.950404</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5793585459.724834</v>
+        <v>2047779648.438243</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002380775778960332</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
+        <v>0.1258407064771667</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02595137578847258</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1023889858.284015</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4097952777.085574</v>
+        <v>1284675017.889378</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001540871520227674</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1806814861737415</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03337159310984491</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>642337586.0032372</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6954013377.061092</v>
+        <v>2836835366.270525</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003999321979518715</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>5</v>
+        <v>0.1550335234162057</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03569341575036172</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1418417697.199547</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3334351566.097209</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1419109914228895</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03289406055822546</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5778518363.612322</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.005151720739424688</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>5</v>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1667175796.366706</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4964273412.820329</v>
+        <v>1955088810.517811</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002481100368341883</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1064475598075126</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05179729679871444</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>977544467.0301498</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7324284151.581422</v>
+        <v>1641104647.590833</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003809933482353095</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
+        <v>0.1618886045844468</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03755359433411913</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>820552343.6733273</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5188945471.270344</v>
+        <v>2793179349.000232</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0035532661574941</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09805762896424483</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03259588197477022</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1396589680.336682</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5973277493.150424</v>
+        <v>4769885145.564087</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001884470368086256</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>8</v>
+        <v>0.09499745847369327</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03468871106717139</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2384942523.315094</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7531014993.805883</v>
+        <v>2150345554.47696</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001391974740174459</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8</v>
+        <v>0.1080434576386945</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03424091797489048</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1075172794.913385</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6332576281.360177</v>
+        <v>2557161717.607176</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002542310381870907</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
+        <v>0.08737205455461879</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05294564763212889</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1278580890.496619</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6845605968.213228</v>
+        <v>1579008978.313467</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003382333642377056</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>6</v>
+        <v>0.1155409207565597</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03163277046169315</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>789504520.7022421</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5098650157.774841</v>
+        <v>3345814177.453784</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003973602469312645</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>6</v>
+        <v>0.1565481257881949</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02370857108152638</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1672907092.28803</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7888576493.799827</v>
+        <v>3666615365.344423</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003176706469221966</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>9</v>
+        <v>0.1018124990792781</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02397776496187208</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1833307712.329204</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3116769474.56841</v>
+        <v>3045115282.520834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005710699287701238</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1444892887787008</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03064730205113731</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1522557630.269134</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4608666256.322985</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1482623005954523</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02450882526167664</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>422</v>
-      </c>
-      <c r="E100" t="n">
-        <v>4352434900.20388</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.002408507491966228</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2304333247.110734</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7406065812.335529</v>
+        <v>2314638145.538702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001113617468193368</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>7</v>
+        <v>0.1633633809591248</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05426955483723964</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1157319070.991278</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_22.xlsx
+++ b/output/fit_clients/fit_round_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1824358015.975686</v>
+        <v>2422454811.376188</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105522308432357</v>
+        <v>0.09198845487699385</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03718929867600748</v>
+        <v>0.03274624205610107</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>912178979.7711619</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1990345223.109246</v>
+        <v>2125579073.075677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1477421495908526</v>
+        <v>0.1778953361709902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03484844883843979</v>
+        <v>0.04516685683413336</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>995172649.8538221</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4315057357.395224</v>
+        <v>3821375511.256593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1208187091913302</v>
+        <v>0.1333460544270116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03400336170480236</v>
+        <v>0.0246233335727677</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2157528714.952585</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4173949647.572709</v>
+        <v>4038375655.249517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08382254539289161</v>
+        <v>0.09025177382484298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03827017869734391</v>
+        <v>0.03415095925975985</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2086974815.8291</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2636829176.444459</v>
+        <v>2402147936.004325</v>
       </c>
       <c r="F6" t="n">
-        <v>0.125676989342304</v>
+        <v>0.1298767860918587</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05312714200768733</v>
+        <v>0.03713999986400326</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1318414548.68999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2887925224.118647</v>
+        <v>2493020896.003167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08587216908099198</v>
+        <v>0.06314898212500074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04605581964204283</v>
+        <v>0.04048427879418228</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1443962587.44038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3420372713.630985</v>
+        <v>3942289512.600607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1516726616200994</v>
+        <v>0.2040965385735398</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02692117097828999</v>
+        <v>0.02290847291259677</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1710186457.059094</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1492507838.045179</v>
+        <v>2097588555.271891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1603053384283409</v>
+        <v>0.1253482935285422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02637099228845916</v>
+        <v>0.03364076215776099</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>746254015.7920649</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5071153780.688161</v>
+        <v>5560575765.803832</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1497753390275562</v>
+        <v>0.2075967127393667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04225666064403358</v>
+        <v>0.04401164407514882</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2535576994.922821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4246802304.317427</v>
+        <v>2993456846.641355</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1637093496539093</v>
+        <v>0.1603792772966984</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03936172659995924</v>
+        <v>0.0404549902886361</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2123401181.885665</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2444676616.01138</v>
+        <v>2385030730.406068</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1694469628525066</v>
+        <v>0.1647964866502749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04735859630918102</v>
+        <v>0.03367744894538442</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1222338274.928058</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3472059816.843998</v>
+        <v>4579212536.719487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07924141104918557</v>
+        <v>0.09178614899178161</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02285546639237173</v>
+        <v>0.02997659705878026</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1736029989.944254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3601840590.910826</v>
+        <v>3740435444.886662</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1472377620100964</v>
+        <v>0.1642999139862619</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03714524734635002</v>
+        <v>0.0285450839215344</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1800920285.993519</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1747376388.456784</v>
+        <v>1422354272.538563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09097933263120778</v>
+        <v>0.07300289991756703</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03844868225381257</v>
+        <v>0.04126849827100331</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873688335.5646715</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2590450782.781243</v>
+        <v>1839934575.930197</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1016485015349504</v>
+        <v>0.1120823932795365</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03481415613860801</v>
+        <v>0.04683004325190164</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1295225413.86374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4432652330.252021</v>
+        <v>4124474952.232108</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1729856475419264</v>
+        <v>0.1270636499584901</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0457593156549451</v>
+        <v>0.04897807869872835</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2216326178.102166</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2622411054.854692</v>
+        <v>3045660942.252055</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1793604436729479</v>
+        <v>0.1403710137329364</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03132380787857772</v>
+        <v>0.03166988467848873</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1311205584.833263</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>979167532.1170688</v>
+        <v>843557513.8415999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1818167623638358</v>
+        <v>0.1820724489616582</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02546113966388028</v>
+        <v>0.01851686508476602</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>489583789.9796287</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1799157426.21165</v>
+        <v>2732168709.097703</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1614005951512082</v>
+        <v>0.1386217851379749</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03146886714928374</v>
+        <v>0.02264515568849954</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>899578760.5900464</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2639319684.961504</v>
+        <v>1936582718.925653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1015231019746171</v>
+        <v>0.07499041287035768</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03123893416842437</v>
+        <v>0.0377297521332879</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1319659817.101822</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3117228085.257858</v>
+        <v>3140239346.80536</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1170104676480655</v>
+        <v>0.1060383923432022</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03899086039633009</v>
+        <v>0.05055935576193982</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1558614096.909921</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1458298758.690878</v>
+        <v>1498078615.956245</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1476043900377219</v>
+        <v>0.1694950960615454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03309750171843582</v>
+        <v>0.04381008325419009</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>729149372.0401893</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4026774854.570421</v>
+        <v>3702147591.942809</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1410465991114367</v>
+        <v>0.1471106906393111</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02668580226007336</v>
+        <v>0.03629249793052554</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2013387393.167045</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>970403915.5652605</v>
+        <v>1192074728.868291</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1151832166866011</v>
+        <v>0.1159641031720111</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02230537722427224</v>
+        <v>0.01997051721594948</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>485202028.4258277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1224427946.280731</v>
+        <v>1002190939.007541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0909691911317817</v>
+        <v>0.08987697837838021</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03166703652296002</v>
+        <v>0.02377714564007599</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>612213999.8966008</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3834464139.232684</v>
+        <v>3000535481.621671</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1268195205347307</v>
+        <v>0.1214331023762906</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01828704777042698</v>
+        <v>0.02334312034456539</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1917232087.738851</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2784063436.823214</v>
+        <v>2820984612.396841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1148466182214032</v>
+        <v>0.149294244151352</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0375177329558756</v>
+        <v>0.03646222819193193</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1392031710.651665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3769266842.594271</v>
+        <v>3594319105.812399</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1119195889768914</v>
+        <v>0.1389389404838592</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04566429665036881</v>
+        <v>0.028636859648249</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1884633453.969026</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1868951541.772458</v>
+        <v>2377654310.58838</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1017764242729052</v>
+        <v>0.1349218384893605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02498240702255227</v>
+        <v>0.03163680439649474</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>934475793.1603087</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1098211853.85031</v>
+        <v>950077459.8201351</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07223749887624202</v>
+        <v>0.1090410542483459</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04005531703807548</v>
+        <v>0.03540536336013791</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>549105902.1039209</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1526063266.449522</v>
+        <v>1540836816.422767</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08750738453560668</v>
+        <v>0.08980048297550611</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03107444850824452</v>
+        <v>0.03411335738665507</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>763031706.727597</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2355822931.290492</v>
+        <v>3124323396.373905</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1596598933878116</v>
+        <v>0.1592917042840701</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06125935984993721</v>
+        <v>0.04250347588556003</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1177911515.881056</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1083241607.85096</v>
+        <v>1013796458.304936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09904000511251002</v>
+        <v>0.08690188308136759</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02385052471610877</v>
+        <v>0.02061589645484023</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>541620827.9261043</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>929629732.1407329</v>
+        <v>874009853.6372843</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07472430503584701</v>
+        <v>0.1121691790052871</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04229971844750684</v>
+        <v>0.03978625850093391</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>464814899.8440632</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2176549608.138834</v>
+        <v>2826781259.616368</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1770581859027162</v>
+        <v>0.1310713085573269</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01804752388471706</v>
+        <v>0.02741652415912197</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1088274851.710488</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2529966171.576222</v>
+        <v>2222406896.15246</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09561826129657146</v>
+        <v>0.08777791212300882</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02886032009105784</v>
+        <v>0.03660019786714874</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1264983185.724355</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056622610.616339</v>
+        <v>1505264323.587663</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1199758696822829</v>
+        <v>0.07583788063432573</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03009474923621394</v>
+        <v>0.03853110358807208</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1028311275.703457</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2044881612.978887</v>
+        <v>2059288293.247139</v>
       </c>
       <c r="F39" t="n">
-        <v>0.119743648126067</v>
+        <v>0.1224857245696693</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02791813105406302</v>
+        <v>0.02113029816251395</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1022440793.961228</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1557455544.050824</v>
+        <v>1324517554.216032</v>
       </c>
       <c r="F40" t="n">
-        <v>0.134247100716547</v>
+        <v>0.134614464956918</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05095939595373214</v>
+        <v>0.04199723534362391</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>778727723.5741355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2864565117.104509</v>
+        <v>2736533257.138215</v>
       </c>
       <c r="F41" t="n">
-        <v>0.101362241948661</v>
+        <v>0.1309458508781598</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0449648590211251</v>
+        <v>0.04701465217337897</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1432282547.992064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3908270598.189208</v>
+        <v>3064177320.597749</v>
       </c>
       <c r="F42" t="n">
-        <v>0.127157082437808</v>
+        <v>0.0971429723621956</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03509262234723637</v>
+        <v>0.03331185822577316</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1954135321.84323</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2758130050.668865</v>
+        <v>2664397217.462933</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1602924795659878</v>
+        <v>0.1604373615823227</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01943012280465822</v>
+        <v>0.01701856946758982</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1379065047.816155</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1568232506.209831</v>
+        <v>2320529894.965274</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09092780870211332</v>
+        <v>0.07611896407231264</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03692966199200363</v>
+        <v>0.02728400552338853</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>784116273.0707861</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1717843269.212508</v>
+        <v>2317366865.372311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1875691855947174</v>
+        <v>0.1456118968975438</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03671652905478621</v>
+        <v>0.04493783611493168</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>858921596.7834284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4167070363.535666</v>
+        <v>3555223181.484991</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1461240290297701</v>
+        <v>0.1308930894170127</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06039611321941413</v>
+        <v>0.04609734114387717</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2083535160.629105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3477519569.21375</v>
+        <v>4504373853.921715</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1828444411833155</v>
+        <v>0.1703300332213714</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05730612325510913</v>
+        <v>0.04684237751085335</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1738759753.838799</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4327482264.134003</v>
+        <v>3125593097.330498</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1040444033963243</v>
+        <v>0.1005537681671355</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02422641763146122</v>
+        <v>0.02887404285662245</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2163741147.166934</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1332529202.614105</v>
+        <v>1242339700.561143</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1892883215150227</v>
+        <v>0.1429081826238313</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02854222133015847</v>
+        <v>0.04133362769797502</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>666264659.0884987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3969571178.281473</v>
+        <v>4066762954.396071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1486764596137507</v>
+        <v>0.1392578963434924</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04376474721195746</v>
+        <v>0.05023306102627474</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1984785579.688609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>944613514.6322937</v>
+        <v>1524928556.238548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.181407786790064</v>
+        <v>0.1598029358151844</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04218508314113035</v>
+        <v>0.04797114488890497</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>472306849.8621799</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3479951602.124217</v>
+        <v>3695243281.845968</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09828502063276126</v>
+        <v>0.1060916349103691</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0500483507223936</v>
+        <v>0.05995843774945968</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1739975887.905768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2425871766.345638</v>
+        <v>2672785580.703971</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1577829655109649</v>
+        <v>0.1775500390965536</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03407428529038819</v>
+        <v>0.02154899105909857</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1212935954.975629</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3895595303.490436</v>
+        <v>4044827354.78677</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1530954097608447</v>
+        <v>0.1259453980888438</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0343861397287931</v>
+        <v>0.04000609197068647</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1947797707.374832</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3457099366.977532</v>
+        <v>3353340617.74092</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1579711183108451</v>
+        <v>0.1640275922742913</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02883460542650028</v>
+        <v>0.02602994571877344</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1728549634.221296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1536804784.025558</v>
+        <v>1721620858.716559</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1235702060039421</v>
+        <v>0.1166849167741197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04974463067941719</v>
+        <v>0.03651983546180252</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>768402428.5301505</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3871862212.474905</v>
+        <v>3949105851.319773</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1397815500896134</v>
+        <v>0.1136651432066458</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02578559420779781</v>
+        <v>0.0240077434897276</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1935931183.582341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1887990771.094326</v>
+        <v>1575407226.110535</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2017500020240696</v>
+        <v>0.1789032154840118</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03824557277663922</v>
+        <v>0.03025039085649769</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>943995381.0324106</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4700141549.31585</v>
+        <v>4395780110.305021</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08714013586975006</v>
+        <v>0.1277413201451951</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04736249499287272</v>
+        <v>0.03382394638361313</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2350070716.602344</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3168509024.332435</v>
+        <v>3100647637.942783</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1560902878382779</v>
+        <v>0.1980774434087421</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02769820355488625</v>
+        <v>0.02706279709579931</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1584254599.900723</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3245142864.824588</v>
+        <v>2667208391.375425</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1616652283889893</v>
+        <v>0.1677506544670194</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02947030974563883</v>
+        <v>0.02533136965661757</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1622571389.460245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1617722422.333162</v>
+        <v>1389473721.460329</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1580148705049303</v>
+        <v>0.1844516308822861</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03239323287771601</v>
+        <v>0.04830039431563213</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>808861211.6584557</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3854268262.179287</v>
+        <v>5043079143.025909</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07747669453648084</v>
+        <v>0.08951301211422333</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04191279791028614</v>
+        <v>0.0434028520986586</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1927134199.703135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4316992464.292159</v>
+        <v>3468432604.851609</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1304139567851734</v>
+        <v>0.1862296306749059</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02496828317456241</v>
+        <v>0.02459382139257124</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2158496290.021906</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4815657725.92574</v>
+        <v>4006541350.363586</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1451277395227201</v>
+        <v>0.1640762868411665</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0270534704452236</v>
+        <v>0.02478234489452623</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2407828832.639305</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4247755597.743593</v>
+        <v>5232446741.537898</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1559387309327483</v>
+        <v>0.1288227620517121</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04030332078825397</v>
+        <v>0.0462412535871916</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2123877785.454889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2201586667.478419</v>
+        <v>3380298188.263922</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08972755174591913</v>
+        <v>0.06880202717706199</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04271557777610967</v>
+        <v>0.04214187132550704</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1100793419.242821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4947144651.518745</v>
+        <v>5846276838.367517</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1142604733280871</v>
+        <v>0.1178480181203291</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04703028837607029</v>
+        <v>0.05015476198286688</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2473572378.677603</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2060960386.084505</v>
+        <v>1854940033.673038</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1733682371563822</v>
+        <v>0.1197050217551655</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05795143815166624</v>
+        <v>0.04161700136769567</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1030480205.6261</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2901321293.983859</v>
+        <v>3589295739.168192</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08772266789515576</v>
+        <v>0.1004357900022646</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04954274446596518</v>
+        <v>0.03120160136817159</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1450660617.312146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4788878633.093677</v>
+        <v>5622104440.751355</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1507793350137206</v>
+        <v>0.1814305240926492</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02096046117802049</v>
+        <v>0.02868329521858507</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2394439406.230098</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1375762039.171615</v>
+        <v>1447752853.326006</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08061523637159253</v>
+        <v>0.1081880282050148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05119492075653749</v>
+        <v>0.0406867778342206</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>687881066.3888171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3303460965.159852</v>
+        <v>2421619657.691768</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06925636714737698</v>
+        <v>0.1128818917662932</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03836284510792888</v>
+        <v>0.04129954248696821</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1651730450.570843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3813753790.028858</v>
+        <v>2503102619.993734</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1313764090110597</v>
+        <v>0.176141228910301</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0329263875524162</v>
+        <v>0.02358194262825267</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1906876889.816272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2225725911.360212</v>
+        <v>1708523246.001854</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1082442431522232</v>
+        <v>0.1343330959964692</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02463009814322493</v>
+        <v>0.02513480182613176</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1112862898.359555</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3354152556.385835</v>
+        <v>3813124146.165064</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08202852385891996</v>
+        <v>0.07645936435220367</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02595541630217478</v>
+        <v>0.02690912699827623</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1677076235.52635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1612642591.077157</v>
+        <v>1833230555.537561</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1153316991139949</v>
+        <v>0.1809061827317641</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02875421256524368</v>
+        <v>0.02647745964010471</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>806321299.6198002</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3165360304.343349</v>
+        <v>4251592612.419793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1282753119265406</v>
+        <v>0.1325803356049776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04839428063654166</v>
+        <v>0.04975821346565545</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1582680177.396362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1611248601.476867</v>
+        <v>1322356587.690786</v>
       </c>
       <c r="F79" t="n">
-        <v>0.167132927836438</v>
+        <v>0.1468780472465996</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0284319067230356</v>
+        <v>0.0361027393907118</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>805624354.1486983</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3394260929.393935</v>
+        <v>5117385068.131682</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08383052381667259</v>
+        <v>0.09490612602795259</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03522932951123604</v>
+        <v>0.03620912089912797</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1697130433.837165</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4011817208.148958</v>
+        <v>4714514758.524017</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1290651762251287</v>
+        <v>0.1329308241079465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02716092685418189</v>
+        <v>0.02779895686228732</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2005908567.46706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3567291103.045356</v>
+        <v>5146659456.282638</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1675347129776296</v>
+        <v>0.1739635456478076</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02118552488166574</v>
+        <v>0.01828012343748123</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1783645615.233357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1821438797.522932</v>
+        <v>2398400777.643846</v>
       </c>
       <c r="F83" t="n">
-        <v>0.125004999260193</v>
+        <v>0.09816709193325794</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03884171305901915</v>
+        <v>0.04240284671990214</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>910719361.5892596</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2039118791.628395</v>
+        <v>2368061559.395585</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1178165089432298</v>
+        <v>0.07767729895663486</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0496539487899206</v>
+        <v>0.03893045415451824</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1019559394.858738</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3139403239.350817</v>
+        <v>3344882958.822722</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1284878884477327</v>
+        <v>0.1794719220526839</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0489295718741718</v>
+        <v>0.03453414601938069</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1569701694.950404</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2047779648.438243</v>
+        <v>1966896760.503542</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1258407064771667</v>
+        <v>0.1344027703649027</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02595137578847258</v>
+        <v>0.02545230530252672</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1023889858.284015</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1284675017.889378</v>
+        <v>1345312891.705839</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1806814861737415</v>
+        <v>0.1815256712943079</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03337159310984491</v>
+        <v>0.04345880575473113</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>642337586.0032372</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2836835366.270525</v>
+        <v>3067024993.107099</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1550335234162057</v>
+        <v>0.1332838856012864</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03569341575036172</v>
+        <v>0.02782848169513207</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1418417697.199547</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3334351566.097209</v>
+        <v>2259701273.80894</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1419109914228895</v>
+        <v>0.1172913475679964</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03289406055822546</v>
+        <v>0.04132061480222858</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1667175796.366706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1955088810.517811</v>
+        <v>1478303388.125996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1064475598075126</v>
+        <v>0.09927269139487059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05179729679871444</v>
+        <v>0.05410114500965641</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>977544467.0301498</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1641104647.590833</v>
+        <v>1930349792.759377</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1618886045844468</v>
+        <v>0.1253768986527495</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03755359433411913</v>
+        <v>0.05054218969103431</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>820552343.6733273</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2793179349.000232</v>
+        <v>2078290022.492024</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09805762896424483</v>
+        <v>0.1049067527002079</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03259588197477022</v>
+        <v>0.04409366217038452</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1396589680.336682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4769885145.564087</v>
+        <v>4371380837.333415</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09499745847369327</v>
+        <v>0.08666818093192762</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03468871106717139</v>
+        <v>0.04221356034086873</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2384942523.315094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2150345554.47696</v>
+        <v>2375288589.468528</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1080434576386945</v>
+        <v>0.1663435285099598</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03424091797489048</v>
+        <v>0.03982879256861535</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1075172794.913385</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2557161717.607176</v>
+        <v>1997516745.493752</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08737205455461879</v>
+        <v>0.1264478971231192</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05294564763212889</v>
+        <v>0.03993570717132584</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1278580890.496619</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1579008978.313467</v>
+        <v>1693658423.282105</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1155409207565597</v>
+        <v>0.08811032912980965</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03163277046169315</v>
+        <v>0.04641987764316528</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>789504520.7022421</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3345814177.453784</v>
+        <v>5337523527.880466</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1565481257881949</v>
+        <v>0.1662238403456002</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02370857108152638</v>
+        <v>0.02397468899535896</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1672907092.28803</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3666615365.344423</v>
+        <v>3865898796.539917</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1018124990792781</v>
+        <v>0.1120985400962797</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02397776496187208</v>
+        <v>0.02267815841396674</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1833307712.329204</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3045115282.520834</v>
+        <v>2556614241.387959</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1444892887787008</v>
+        <v>0.113577247749715</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03064730205113731</v>
+        <v>0.02952754077974706</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1522557630.269134</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4608666256.322985</v>
+        <v>3933467304.664302</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1482623005954523</v>
+        <v>0.1768296227849879</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02450882526167664</v>
+        <v>0.02277193994285102</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2304333247.110734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2314638145.538702</v>
+        <v>2491082171.971968</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1633633809591248</v>
+        <v>0.1538692243165384</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05426955483723964</v>
+        <v>0.05127123815035393</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1157319070.991278</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_22.xlsx
+++ b/output/fit_clients/fit_round_22.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2422454811.376188</v>
+        <v>2327692613.947533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09198845487699385</v>
+        <v>0.07247398052077257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03274624205610107</v>
+        <v>0.02819596831210844</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2125579073.075677</v>
+        <v>1860874279.087709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1778953361709902</v>
+        <v>0.1428291875621831</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04516685683413336</v>
+        <v>0.03229453987999537</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3821375511.256593</v>
+        <v>4892491107.304626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1333460544270116</v>
+        <v>0.1351695755105026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0246233335727677</v>
+        <v>0.03133829094142172</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4038375655.249517</v>
+        <v>3995639382.026528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09025177382484298</v>
+        <v>0.08242702596376283</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03415095925975985</v>
+        <v>0.03582548674315026</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2402147936.004325</v>
+        <v>2258800391.028928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1298767860918587</v>
+        <v>0.1221253777876098</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03713999986400326</v>
+        <v>0.04591166734615298</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2493020896.003167</v>
+        <v>2588823604.130281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06314898212500074</v>
+        <v>0.06347799308381723</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04048427879418228</v>
+        <v>0.04136007095552075</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3942289512.600607</v>
+        <v>2667033386.569826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2040965385735398</v>
+        <v>0.1949218198708453</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02290847291259677</v>
+        <v>0.03020894020346747</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2097588555.271891</v>
+        <v>2150872071.029646</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1253482935285422</v>
+        <v>0.1951341390136569</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03364076215776099</v>
+        <v>0.03249708069783902</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5560575765.803832</v>
+        <v>5436771662.042295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2075967127393667</v>
+        <v>0.2160748933361614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04401164407514882</v>
+        <v>0.04159896548687564</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2993456846.641355</v>
+        <v>3699694782.102601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1603792772966984</v>
+        <v>0.1537715462548478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0404549902886361</v>
+        <v>0.0358333240368956</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2385030730.406068</v>
+        <v>3013068990.737535</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1647964866502749</v>
+        <v>0.1616176895528246</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03367744894538442</v>
+        <v>0.03793030025493947</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4579212536.719487</v>
+        <v>5030356272.649966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09178614899178161</v>
+        <v>0.09686533030330018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02997659705878026</v>
+        <v>0.02503415587932652</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3740435444.886662</v>
+        <v>3055748167.294445</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1642999139862619</v>
+        <v>0.1243526889434285</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0285450839215344</v>
+        <v>0.03783748373206902</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1422354272.538563</v>
+        <v>1484694930.900093</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07300289991756703</v>
+        <v>0.07477673905287516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04126849827100331</v>
+        <v>0.03370384138137935</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1839934575.930197</v>
+        <v>1893562022.650532</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1120823932795365</v>
+        <v>0.0895170636356724</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04683004325190164</v>
+        <v>0.03189984841732942</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4124474952.232108</v>
+        <v>3315362474.002859</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1270636499584901</v>
+        <v>0.1541091064703279</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04897807869872835</v>
+        <v>0.03735053050936787</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3045660942.252055</v>
+        <v>2976536005.385538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1403710137329364</v>
+        <v>0.1367682454008509</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03166988467848873</v>
+        <v>0.02162776630691145</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>843557513.8415999</v>
+        <v>1073832577.229389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1820724489616582</v>
+        <v>0.153505275425483</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01851686508476602</v>
+        <v>0.02153280510776162</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2732168709.097703</v>
+        <v>1790309379.256921</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1386217851379749</v>
+        <v>0.1034763570766363</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02264515568849954</v>
+        <v>0.03044276876047617</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1936582718.925653</v>
+        <v>2069739784.595331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07499041287035768</v>
+        <v>0.09058142556446191</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0377297521332879</v>
+        <v>0.02954050575468377</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3140239346.80536</v>
+        <v>2899096700.662477</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1060383923432022</v>
+        <v>0.08721817224103275</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05055935576193982</v>
+        <v>0.04674103345843728</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1498078615.956245</v>
+        <v>1172987085.959384</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1694950960615454</v>
+        <v>0.1385890247303927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04381008325419009</v>
+        <v>0.03406456239881525</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3702147591.942809</v>
+        <v>2586130568.001841</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1471106906393111</v>
+        <v>0.1284879161344037</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03629249793052554</v>
+        <v>0.03422516607634492</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1192074728.868291</v>
+        <v>1047748859.170389</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1159641031720111</v>
+        <v>0.1074926571984299</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01997051721594948</v>
+        <v>0.02538827450191828</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1002190939.007541</v>
+        <v>912099905.428587</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08987697837838021</v>
+        <v>0.1138699734183156</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02377714564007599</v>
+        <v>0.03222184108710371</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3000535481.621671</v>
+        <v>2864294562.183387</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1214331023762906</v>
+        <v>0.1551050155208216</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02334312034456539</v>
+        <v>0.02017633707114131</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2820984612.396841</v>
+        <v>2937769475.571617</v>
       </c>
       <c r="F28" t="n">
-        <v>0.149294244151352</v>
+        <v>0.1119073566901868</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03646222819193193</v>
+        <v>0.04628212401058042</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3594319105.812399</v>
+        <v>3581473773.384957</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1389389404838592</v>
+        <v>0.1414535672043774</v>
       </c>
       <c r="G29" t="n">
-        <v>0.028636859648249</v>
+        <v>0.04029407246225395</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2377654310.58838</v>
+        <v>2094411080.544625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1349218384893605</v>
+        <v>0.1019838628983051</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03163680439649474</v>
+        <v>0.03381223348581779</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>950077459.8201351</v>
+        <v>1308577820.30302</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1090410542483459</v>
+        <v>0.07268020081516745</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03540536336013791</v>
+        <v>0.05063334003436552</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1540836816.422767</v>
+        <v>1295793683.657456</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08980048297550611</v>
+        <v>0.1133934651264792</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03411335738665507</v>
+        <v>0.0292558523614389</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3124323396.373905</v>
+        <v>2582977383.458696</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1592917042840701</v>
+        <v>0.1413481372863491</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04250347588556003</v>
+        <v>0.04858478183065072</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1013796458.304936</v>
+        <v>1546825888.699829</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08690188308136759</v>
+        <v>0.09119872136367882</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02061589645484023</v>
+        <v>0.02606783521827606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>874009853.6372843</v>
+        <v>890417894.6997721</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1121691790052871</v>
+        <v>0.1084859474731578</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03978625850093391</v>
+        <v>0.03097032729246436</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2826781259.616368</v>
+        <v>3019412695.536807</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1310713085573269</v>
+        <v>0.1613757290620232</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02741652415912197</v>
+        <v>0.02121630576760765</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2222406896.15246</v>
+        <v>2925223210.625519</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08777791212300882</v>
+        <v>0.1094125732388652</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03660019786714874</v>
+        <v>0.03188310087906972</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1505264323.587663</v>
+        <v>1493475625.819542</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07583788063432573</v>
+        <v>0.1067048336318471</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03853110358807208</v>
+        <v>0.0308153887666349</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2059288293.247139</v>
+        <v>1823295385.353838</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1224857245696693</v>
+        <v>0.1830452331123996</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02113029816251395</v>
+        <v>0.02337608870730881</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1324517554.216032</v>
+        <v>1764045457.96448</v>
       </c>
       <c r="F40" t="n">
-        <v>0.134614464956918</v>
+        <v>0.09993493976373968</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04199723534362391</v>
+        <v>0.03756604437876835</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2736533257.138215</v>
+        <v>2765665698.586518</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1309458508781598</v>
+        <v>0.1451118533038489</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04701465217337897</v>
+        <v>0.0303901024506999</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3064177320.597749</v>
+        <v>3307965184.105555</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0971429723621956</v>
+        <v>0.1045246164115653</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03331185822577316</v>
+        <v>0.03033534911162605</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2664397217.462933</v>
+        <v>1940406842.848128</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1604373615823227</v>
+        <v>0.1391065450398593</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01701856946758982</v>
+        <v>0.01630643970249682</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2320529894.965274</v>
+        <v>2294501164.063188</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07611896407231264</v>
+        <v>0.08751118658674309</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02728400552338853</v>
+        <v>0.02309179292731379</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2317366865.372311</v>
+        <v>2500048183.335758</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1456118968975438</v>
+        <v>0.1767138779179752</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04493783611493168</v>
+        <v>0.04771607238569142</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3555223181.484991</v>
+        <v>4876874918.225003</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1308930894170127</v>
+        <v>0.1558349755584996</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04609734114387717</v>
+        <v>0.05112346758361017</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4504373853.921715</v>
+        <v>3515657602.676852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1703300332213714</v>
+        <v>0.1741977516823339</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04684237751085335</v>
+        <v>0.04507787780057913</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3125593097.330498</v>
+        <v>3971148357.949644</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1005537681671355</v>
+        <v>0.09842381964092047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02887404285662245</v>
+        <v>0.02628173724148838</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1242339700.561143</v>
+        <v>1976186206.625863</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1429081826238313</v>
+        <v>0.1584743625500117</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04133362769797502</v>
+        <v>0.03927387217769769</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4066762954.396071</v>
+        <v>2582744600.525231</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1392578963434924</v>
+        <v>0.1555365164599861</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05023306102627474</v>
+        <v>0.04185775712223639</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1524928556.238548</v>
+        <v>1463627630.194019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1598029358151844</v>
+        <v>0.1528038632625065</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04797114488890497</v>
+        <v>0.0526472255303189</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3695243281.845968</v>
+        <v>4572578552.973721</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1060916349103691</v>
+        <v>0.1139265364498327</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05995843774945968</v>
+        <v>0.05771305846674576</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2672785580.703971</v>
+        <v>3025922700.496938</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1775500390965536</v>
+        <v>0.1563001531551215</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02154899105909857</v>
+        <v>0.02500869412399159</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4044827354.78677</v>
+        <v>4512585869.76171</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1259453980888438</v>
+        <v>0.1621507708474232</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04000609197068647</v>
+        <v>0.03387959810171622</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3353340617.74092</v>
+        <v>3362130961.430313</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1640275922742913</v>
+        <v>0.2080119551573973</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02602994571877344</v>
+        <v>0.03059024228442839</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1721620858.716559</v>
+        <v>1189419506.680245</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1166849167741197</v>
+        <v>0.1456988631947606</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03651983546180252</v>
+        <v>0.0548211035378687</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3949105851.319773</v>
+        <v>3474343864.791403</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1136651432066458</v>
+        <v>0.1644750483004987</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0240077434897276</v>
+        <v>0.02571428102214256</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1575407226.110535</v>
+        <v>1468184536.988585</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1789032154840118</v>
+        <v>0.1262782967192282</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03025039085649769</v>
+        <v>0.03282377675576307</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4395780110.305021</v>
+        <v>5098615121.411996</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1277413201451951</v>
+        <v>0.09021301601974652</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03382394638361313</v>
+        <v>0.037886287172269</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3100647637.942783</v>
+        <v>3380777848.156517</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1980774434087421</v>
+        <v>0.1767095762131009</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02706279709579931</v>
+        <v>0.03228357750148651</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2667208391.375425</v>
+        <v>2865077147.155537</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1677506544670194</v>
+        <v>0.180690624705269</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02533136965661757</v>
+        <v>0.02334811895246742</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1389473721.460329</v>
+        <v>1601998125.589765</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1844516308822861</v>
+        <v>0.143882040362107</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04830039431563213</v>
+        <v>0.03995776634948338</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5043079143.025909</v>
+        <v>3378076199.96431</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08951301211422333</v>
+        <v>0.09448424877261878</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0434028520986586</v>
+        <v>0.04505428200688043</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3468432604.851609</v>
+        <v>5073353523.604664</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1862296306749059</v>
+        <v>0.1333988266588864</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02459382139257124</v>
+        <v>0.0316659192811624</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4006541350.363586</v>
+        <v>5949924024.227154</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1640762868411665</v>
+        <v>0.1724654994872253</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02478234489452623</v>
+        <v>0.02753299641772286</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5232446741.537898</v>
+        <v>4721540523.378701</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1288227620517121</v>
+        <v>0.1517688703895899</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0462412535871916</v>
+        <v>0.04922143978664675</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3380298188.263922</v>
+        <v>2706581761.795926</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06880202717706199</v>
+        <v>0.08226662217958731</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04214187132550704</v>
+        <v>0.03429598530238806</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5846276838.367517</v>
+        <v>5396926770.049084</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1178480181203291</v>
+        <v>0.1185996489466455</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05015476198286688</v>
+        <v>0.04616994230925228</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1854940033.673038</v>
+        <v>2122857363.578829</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1197050217551655</v>
+        <v>0.1767267792548235</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04161700136769567</v>
+        <v>0.04277226787417063</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3589295739.168192</v>
+        <v>2812404881.775358</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1004357900022646</v>
+        <v>0.07573796226512781</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03120160136817159</v>
+        <v>0.03321172324314335</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5622104440.751355</v>
+        <v>4035811820.536368</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1814305240926492</v>
+        <v>0.1781821356894831</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02868329521858507</v>
+        <v>0.03207363079638698</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1447752853.326006</v>
+        <v>1848259824.650852</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1081880282050148</v>
+        <v>0.07561183947990108</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0406867778342206</v>
+        <v>0.05302702046789528</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2421619657.691768</v>
+        <v>3409493017.229378</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1128818917662932</v>
+        <v>0.1109578068079976</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04129954248696821</v>
+        <v>0.04519975710136906</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2503102619.993734</v>
+        <v>3923621502.435972</v>
       </c>
       <c r="F74" t="n">
-        <v>0.176141228910301</v>
+        <v>0.1614491706436202</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02358194262825267</v>
+        <v>0.03188139739915842</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1708523246.001854</v>
+        <v>2147825558.575313</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1343330959964692</v>
+        <v>0.1669826746878783</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02513480182613176</v>
+        <v>0.02640393942533632</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3813124146.165064</v>
+        <v>4813647156.241507</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07645936435220367</v>
+        <v>0.1005315359388717</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02690912699827623</v>
+        <v>0.02618676709605488</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1833230555.537561</v>
+        <v>1888679626.061678</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1809061827317641</v>
+        <v>0.1597924327303627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02647745964010471</v>
+        <v>0.02643062793363433</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4251592612.419793</v>
+        <v>2911432321.720819</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1325803356049776</v>
+        <v>0.1122031710916197</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04975821346565545</v>
+        <v>0.04918814201894151</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1322356587.690786</v>
+        <v>1593249950.223926</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1468780472465996</v>
+        <v>0.1323336703201516</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0361027393907118</v>
+        <v>0.03479662013558597</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5117385068.131682</v>
+        <v>3794346661.855543</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09490612602795259</v>
+        <v>0.08001269178898493</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03620912089912797</v>
+        <v>0.03751149057578286</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4714514758.524017</v>
+        <v>4104047227.431278</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1329308241079465</v>
+        <v>0.119911089561703</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02779895686228732</v>
+        <v>0.02910043719277655</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5146659456.282638</v>
+        <v>4547656292.622856</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1739635456478076</v>
+        <v>0.1808617090857862</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01828012343748123</v>
+        <v>0.02429250064863247</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2398400777.643846</v>
+        <v>1934485123.531159</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09816709193325794</v>
+        <v>0.1584763542839201</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04240284671990214</v>
+        <v>0.03791111207203261</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2368061559.395585</v>
+        <v>2316940355.307192</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07767729895663486</v>
+        <v>0.115318082129633</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03893045415451824</v>
+        <v>0.042440142869025</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3344882958.822722</v>
+        <v>2905721512.539261</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1794719220526839</v>
+        <v>0.1337507077328015</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03453414601938069</v>
+        <v>0.04252980771807904</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1966896760.503542</v>
+        <v>1708253426.941547</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1344027703649027</v>
+        <v>0.1240182664566225</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02545230530252672</v>
+        <v>0.02519433859119572</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1345312891.705839</v>
+        <v>1375379393.189693</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1815256712943079</v>
+        <v>0.128651697314012</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04345880575473113</v>
+        <v>0.03820297154895201</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3067024993.107099</v>
+        <v>2833505273.335916</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1332838856012864</v>
+        <v>0.151817514873448</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02782848169513207</v>
+        <v>0.03207781964976113</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2259701273.80894</v>
+        <v>2572294149.686787</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1172913475679964</v>
+        <v>0.1530056394615981</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04132061480222858</v>
+        <v>0.03685338377795004</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1478303388.125996</v>
+        <v>1449713437.671169</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09927269139487059</v>
+        <v>0.0976614884863593</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05410114500965641</v>
+        <v>0.04224632627514819</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1930349792.759377</v>
+        <v>1758035410.611743</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1253768986527495</v>
+        <v>0.1275786864902528</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05054218969103431</v>
+        <v>0.05302974496307078</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2078290022.492024</v>
+        <v>2655326242.359407</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1049067527002079</v>
+        <v>0.06972666891680258</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04409366217038452</v>
+        <v>0.04558279862485935</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4371380837.333415</v>
+        <v>3557659383.341707</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08666818093192762</v>
+        <v>0.1051029995667071</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04221356034086873</v>
+        <v>0.05238673079233598</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2375288589.468528</v>
+        <v>1628282327.797695</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1663435285099598</v>
+        <v>0.1146673536750543</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03982879256861535</v>
+        <v>0.0350298028584182</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1997516745.493752</v>
+        <v>2746392183.502021</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1264478971231192</v>
+        <v>0.134156694778614</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03993570717132584</v>
+        <v>0.04329613364236135</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1693658423.282105</v>
+        <v>2205582750.897268</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08811032912980965</v>
+        <v>0.1130005603761349</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04641987764316528</v>
+        <v>0.04734443920017768</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5337523527.880466</v>
+        <v>3641480021.27388</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1662238403456002</v>
+        <v>0.1479802426849381</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02397468899535896</v>
+        <v>0.02541605864650493</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3865898796.539917</v>
+        <v>3676810088.388684</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1120985400962797</v>
+        <v>0.1205630284884117</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02267815841396674</v>
+        <v>0.03076958583290403</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2556614241.387959</v>
+        <v>3089559926.400499</v>
       </c>
       <c r="F99" t="n">
-        <v>0.113577247749715</v>
+        <v>0.0944428540742977</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02952754077974706</v>
+        <v>0.03474756774051001</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3933467304.664302</v>
+        <v>3547705060.105473</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1768296227849879</v>
+        <v>0.1452577462437113</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02277193994285102</v>
+        <v>0.02220481849645784</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2491082171.971968</v>
+        <v>3446671761.502024</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1538692243165384</v>
+        <v>0.1889303724032467</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05127123815035393</v>
+        <v>0.05048113929143491</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_22.xlsx
+++ b/output/fit_clients/fit_round_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2327692613.947533</v>
+        <v>2473322645.186249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07247398052077257</v>
+        <v>0.06918809594841004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02819596831210844</v>
+        <v>0.03009008022312111</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1860874279.087709</v>
+        <v>1717552237.750926</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1428291875621831</v>
+        <v>0.1657159376573393</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03229453987999537</v>
+        <v>0.04200803772785573</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4892491107.304626</v>
+        <v>4427565391.242196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1351695755105026</v>
+        <v>0.1490330815068821</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03133829094142172</v>
+        <v>0.03359653466047879</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.9003559915056</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3995639382.026528</v>
+        <v>3712443755.530045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08242702596376283</v>
+        <v>0.07841130887445939</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03582548674315026</v>
+        <v>0.04082983767228428</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2258800391.028928</v>
+        <v>2056500951.557012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1221253777876098</v>
+        <v>0.1213862338433827</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04591166734615298</v>
+        <v>0.04596736573547828</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2588823604.130281</v>
+        <v>2533378009.222112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06347799308381723</v>
+        <v>0.06653541940603461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04136007095552075</v>
+        <v>0.04460069130822575</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2667033386.569826</v>
+        <v>3966039009.789201</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1949218198708453</v>
+        <v>0.1726810923686486</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03020894020346747</v>
+        <v>0.03189407475161139</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2150872071.029646</v>
+        <v>2097644060.59063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1951341390136569</v>
+        <v>0.1554282851334115</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03249708069783902</v>
+        <v>0.02786427394071673</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5436771662.042295</v>
+        <v>5201819834.537813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2160748933361614</v>
+        <v>0.1614037120674646</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04159896548687564</v>
+        <v>0.03450637668927452</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.9583285087572</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3699694782.102601</v>
+        <v>2826883871.329267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1537715462548478</v>
+        <v>0.1783660279706493</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0358333240368956</v>
+        <v>0.03895022164340407</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3013068990.737535</v>
+        <v>2543210797.036333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1616176895528246</v>
+        <v>0.1627063138298465</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03793030025493947</v>
+        <v>0.0514416310952927</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5030356272.649966</v>
+        <v>3397459566.78948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09686533030330018</v>
+        <v>0.08788342881203239</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02503415587932652</v>
+        <v>0.02628289363764164</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>138.231046504281</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3055748167.294445</v>
+        <v>3687198940.112937</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1243526889434285</v>
+        <v>0.1566441129474684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03783748373206902</v>
+        <v>0.02747521350632809</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1484694930.900093</v>
+        <v>1376282006.437065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07477673905287516</v>
+        <v>0.104352965272519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03370384138137935</v>
+        <v>0.04073771299232679</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1893562022.650532</v>
+        <v>2698021484.312934</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0895170636356724</v>
+        <v>0.07475707783877782</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03189984841732942</v>
+        <v>0.04704946390317707</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3315362474.002859</v>
+        <v>3836921883.589136</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1541091064703279</v>
+        <v>0.1522979590882438</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03735053050936787</v>
+        <v>0.05314538148810491</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2976536005.385538</v>
+        <v>3907926672.395303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1367682454008509</v>
+        <v>0.1261210626082637</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02162776630691145</v>
+        <v>0.0297340537712488</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1073832577.229389</v>
+        <v>925068834.5734477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.153505275425483</v>
+        <v>0.1880288370988077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02153280510776162</v>
+        <v>0.02101404131277783</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1790309379.256921</v>
+        <v>2226741332.25461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034763570766363</v>
+        <v>0.1007827284183958</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03044276876047617</v>
+        <v>0.02420372104314477</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2069739784.595331</v>
+        <v>1776779952.478395</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09058142556446191</v>
+        <v>0.06558656514250025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02954050575468377</v>
+        <v>0.04569084199501979</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2899096700.662477</v>
+        <v>3679829670.005874</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08721817224103275</v>
+        <v>0.08936681889236416</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04674103345843728</v>
+        <v>0.03919456838565155</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1172987085.959384</v>
+        <v>1271083998.888533</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1385890247303927</v>
+        <v>0.1410445627983802</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03406456239881525</v>
+        <v>0.05491999818501782</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2586130568.001841</v>
+        <v>3790657046.622093</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1284879161344037</v>
+        <v>0.09569860703858254</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03422516607634492</v>
+        <v>0.02365758282398134</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1047748859.170389</v>
+        <v>1346998508.04817</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1074926571984299</v>
+        <v>0.08035000026810928</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02538827450191828</v>
+        <v>0.01904450738369884</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>912099905.428587</v>
+        <v>1131021229.304341</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138699734183156</v>
+        <v>0.117188525228072</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03222184108710371</v>
+        <v>0.03780954073651972</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2864294562.183387</v>
+        <v>2988149348.120827</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1551050155208216</v>
+        <v>0.09792070124286649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02017633707114131</v>
+        <v>0.02255842902260416</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21</v>
+      </c>
+      <c r="K27" t="n">
+        <v>86.4670466949927</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2937769475.571617</v>
+        <v>2706009612.24018</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1119073566901868</v>
+        <v>0.1165845204792718</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04628212401058042</v>
+        <v>0.03721867409902243</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21</v>
+      </c>
+      <c r="K28" t="n">
+        <v>86.72832894679351</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3581473773.384957</v>
+        <v>5630694124.824632</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1414535672043774</v>
+        <v>0.1141876438289255</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04029407246225395</v>
+        <v>0.03272096962938596</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" t="n">
+        <v>22</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9201216280365</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2094411080.544625</v>
+        <v>1729440232.957195</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1019838628983051</v>
+        <v>0.1390439891177233</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03381223348581779</v>
+        <v>0.02869174661935955</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1308577820.30302</v>
+        <v>1489828055.629394</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07268020081516745</v>
+        <v>0.08348188016496073</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05063334003436552</v>
+        <v>0.03941201609429145</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1295793683.657456</v>
+        <v>1891870127.372915</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1133934651264792</v>
+        <v>0.1041186732406051</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0292558523614389</v>
+        <v>0.02673698294207551</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2582977383.458696</v>
+        <v>3030878108.466653</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1413481372863491</v>
+        <v>0.2068514795730695</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04858478183065072</v>
+        <v>0.03700986790822437</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1546825888.699829</v>
+        <v>1254150658.827339</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09119872136367882</v>
+        <v>0.1194167069405144</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02606783521827606</v>
+        <v>0.02003656499655098</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>890417894.6997721</v>
+        <v>1151874462.619496</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1084859474731578</v>
+        <v>0.1026192826521388</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03097032729246436</v>
+        <v>0.03950139773611457</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3019412695.536807</v>
+        <v>2311781318.204383</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1613757290620232</v>
+        <v>0.1750660055868153</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02121630576760765</v>
+        <v>0.02433289762980074</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2925223210.625519</v>
+        <v>2149787006.803993</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1094125732388652</v>
+        <v>0.1080881620345118</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03188310087906972</v>
+        <v>0.02673978706076668</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1493475625.819542</v>
+        <v>1657239505.428121</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1067048336318471</v>
+        <v>0.07850828558430795</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0308153887666349</v>
+        <v>0.02579650796200243</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1823295385.353838</v>
+        <v>1777646670.67982</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1830452331123996</v>
+        <v>0.1336738496339926</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02337608870730881</v>
+        <v>0.02208497448776451</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1764045457.96448</v>
+        <v>1232542527.107601</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09993493976373968</v>
+        <v>0.1407630562042152</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03756604437876835</v>
+        <v>0.03807564395519304</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2765665698.586518</v>
+        <v>1800358450.792323</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1451118533038489</v>
+        <v>0.118116457772906</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0303901024506999</v>
+        <v>0.04483097282913453</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3307965184.105555</v>
+        <v>3522400321.243611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1045246164115653</v>
+        <v>0.09937701699261496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03033534911162605</v>
+        <v>0.04626831607518499</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>21</v>
+      </c>
+      <c r="K42" t="n">
+        <v>147.2819797226864</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1940406842.848128</v>
+        <v>1886393287.552811</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1391065450398593</v>
+        <v>0.1542711313023853</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01630643970249682</v>
+        <v>0.02419418464133199</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2294501164.063188</v>
+        <v>1772837484.961365</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08751118658674309</v>
+        <v>0.08156264275030259</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02309179292731379</v>
+        <v>0.03603517941559044</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2500048183.335758</v>
+        <v>1897025508.191819</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1767138779179752</v>
+        <v>0.1359325278594683</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04771607238569142</v>
+        <v>0.05162170893421133</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4876874918.225003</v>
+        <v>4392470733.525808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1558349755584996</v>
+        <v>0.1397089469750605</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05112346758361017</v>
+        <v>0.05170076102590875</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>22</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3515657602.676852</v>
+        <v>3767729411.362999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1741977516823339</v>
+        <v>0.1481214967156803</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04507787780057913</v>
+        <v>0.04796450404214529</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>22</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3971148357.949644</v>
+        <v>3668793337.712972</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09842381964092047</v>
+        <v>0.06887175884277934</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02628173724148838</v>
+        <v>0.03337429515667687</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>22</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1976186206.625863</v>
+        <v>1262184972.143919</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1584743625500117</v>
+        <v>0.1501532507233534</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03927387217769769</v>
+        <v>0.03686327214931761</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2582744600.525231</v>
+        <v>3095610260.590269</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1555365164599861</v>
+        <v>0.1244282161054674</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04185775712223639</v>
+        <v>0.03695321905971052</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1463627630.194019</v>
+        <v>1308244925.60877</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1528038632625065</v>
+        <v>0.1694383385976854</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0526472255303189</v>
+        <v>0.05117887525482165</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4572578552.973721</v>
+        <v>5297678866.19344</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1139265364498327</v>
+        <v>0.0928175872641535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05771305846674576</v>
+        <v>0.05764910232606485</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>22</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.4747509503648</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3025922700.496938</v>
+        <v>2512531806.14579</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1563001531551215</v>
+        <v>0.1537990608592628</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02500869412399159</v>
+        <v>0.02572702644646369</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4512585869.76171</v>
+        <v>4931608950.250164</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1621507708474232</v>
+        <v>0.1373130442159715</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03387959810171622</v>
+        <v>0.03699018737135506</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>21</v>
+      </c>
+      <c r="K54" t="n">
+        <v>210.3400820390006</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3362130961.430313</v>
+        <v>4208188536.252608</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2080119551573973</v>
+        <v>0.2138577626363347</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03059024228442839</v>
+        <v>0.02668083507123471</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.6421253964322</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1189419506.680245</v>
+        <v>1241061874.896407</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1456988631947606</v>
+        <v>0.1386281987638796</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0548211035378687</v>
+        <v>0.04611247313164664</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3474343864.791403</v>
+        <v>4206981471.185905</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1644750483004987</v>
+        <v>0.1173733170820432</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02571428102214256</v>
+        <v>0.01761509330088977</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1468184536.988585</v>
+        <v>1504302959.903395</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1262782967192282</v>
+        <v>0.1551340742486752</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03282377675576307</v>
+        <v>0.02751292915606145</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5098615121.411996</v>
+        <v>5415069654.783442</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09021301601974652</v>
+        <v>0.09703389782437524</v>
       </c>
       <c r="G59" t="n">
-        <v>0.037886287172269</v>
+        <v>0.04474502826397903</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>22</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3380777848.156517</v>
+        <v>2505358739.929774</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1767095762131009</v>
+        <v>0.1727661305592456</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03228357750148651</v>
+        <v>0.03314409563480506</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>21</v>
+      </c>
+      <c r="K60" t="n">
+        <v>71.2467870360351</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2865077147.155537</v>
+        <v>2608739335.598842</v>
       </c>
       <c r="F61" t="n">
-        <v>0.180690624705269</v>
+        <v>0.1143128625460439</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02334811895246742</v>
+        <v>0.02368615714673658</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1601998125.589765</v>
+        <v>1843854102.503036</v>
       </c>
       <c r="F62" t="n">
-        <v>0.143882040362107</v>
+        <v>0.12692146701926</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03995776634948338</v>
+        <v>0.03408574560175724</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3378076199.96431</v>
+        <v>3637428730.031748</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09448424877261878</v>
+        <v>0.08515595681472708</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04505428200688043</v>
+        <v>0.03344862230912601</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>22</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5073353523.604664</v>
+        <v>3375962803.711439</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1333988266588864</v>
+        <v>0.1612067439877614</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0316659192811624</v>
+        <v>0.02915647442990512</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>21</v>
+      </c>
+      <c r="K64" t="n">
+        <v>129.4432736127849</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5949924024.227154</v>
+        <v>3655144107.508401</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1724654994872253</v>
+        <v>0.1729264239309509</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02753299641772286</v>
+        <v>0.02756483529410413</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>21</v>
+      </c>
+      <c r="K65" t="n">
+        <v>162.5371320502936</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4721540523.378701</v>
+        <v>4919302160.321448</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1517688703895899</v>
+        <v>0.1536904489149957</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04922143978664675</v>
+        <v>0.04005688837465604</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>21</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.6854096443234</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2706581761.795926</v>
+        <v>2172001739.760618</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08226662217958731</v>
+        <v>0.0638320819114687</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03429598530238806</v>
+        <v>0.04754368920773535</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5396926770.049084</v>
+        <v>3872820541.432076</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1185996489466455</v>
+        <v>0.1165290573257794</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04616994230925228</v>
+        <v>0.04375605672327304</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>21</v>
+      </c>
+      <c r="K68" t="n">
+        <v>171.1720274548921</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2122857363.578829</v>
+        <v>2336908397.722036</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1767267792548235</v>
+        <v>0.1693166484331235</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04277226787417063</v>
+        <v>0.0524844601381826</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2812404881.775358</v>
+        <v>3234249463.320244</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07573796226512781</v>
+        <v>0.06432516413146896</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03321172324314335</v>
+        <v>0.03243440071094221</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4035811820.536368</v>
+        <v>4368654099.856949</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1781821356894831</v>
+        <v>0.1161690077139524</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03207363079638698</v>
+        <v>0.02883252206048134</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18</v>
+      </c>
+      <c r="J71" t="n">
+        <v>22</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.4626739524262</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1848259824.650852</v>
+        <v>1782382029.72585</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07561183947990108</v>
+        <v>0.08038505301283878</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05302702046789528</v>
+        <v>0.04239293187385464</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3409493017.229378</v>
+        <v>2573428994.922063</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1109578068079976</v>
+        <v>0.07741166755288441</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04519975710136906</v>
+        <v>0.04373344919650455</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3923621502.435972</v>
+        <v>2944900492.806959</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1614491706436202</v>
+        <v>0.1827147331520637</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03188139739915842</v>
+        <v>0.02356853606754409</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>19</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2147825558.575313</v>
+        <v>2444762995.177176</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1669826746878783</v>
+        <v>0.1376743157416465</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02640393942533632</v>
+        <v>0.03613684268237526</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4813647156.241507</v>
+        <v>5188081573.771372</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1005315359388717</v>
+        <v>0.1059329478657618</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02618676709605488</v>
+        <v>0.02158013136492335</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>21</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.6260885153553</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1888679626.061678</v>
+        <v>2163099407.063435</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1597924327303627</v>
+        <v>0.1351818849002911</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02643062793363433</v>
+        <v>0.03002505905785366</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2911432321.720819</v>
+        <v>3088752759.737594</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1122031710916197</v>
+        <v>0.09815722428737256</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04918814201894151</v>
+        <v>0.03965654938090408</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>20</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1593249950.223926</v>
+        <v>1727208000.563854</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1323336703201516</v>
+        <v>0.1361354040932799</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03479662013558597</v>
+        <v>0.0325987056127269</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3794346661.855543</v>
+        <v>3681847131.766471</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08001269178898493</v>
+        <v>0.06748234480389845</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03751149057578286</v>
+        <v>0.03732125525605266</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>22</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4104047227.431278</v>
+        <v>3517079552.870276</v>
       </c>
       <c r="F81" t="n">
-        <v>0.119911089561703</v>
+        <v>0.09419304884456962</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02910043719277655</v>
+        <v>0.02794303000107613</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>20</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4547656292.622856</v>
+        <v>5440767016.84004</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1808617090857862</v>
+        <v>0.137823500107418</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02429250064863247</v>
+        <v>0.01955895926620911</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>21</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.2461008181777</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1934485123.531159</v>
+        <v>1731498355.492421</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1584763542839201</v>
+        <v>0.1389268659463797</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03791111207203261</v>
+        <v>0.03380599072284665</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2316940355.307192</v>
+        <v>2100088734.094669</v>
       </c>
       <c r="F84" t="n">
-        <v>0.115318082129633</v>
+        <v>0.1101861983218796</v>
       </c>
       <c r="G84" t="n">
-        <v>0.042440142869025</v>
+        <v>0.04852292613845886</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2905721512.539261</v>
+        <v>2899267580.716177</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1337507077328015</v>
+        <v>0.1827322778632436</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04252980771807904</v>
+        <v>0.04719537523288584</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1708253426.941547</v>
+        <v>1702959127.984125</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1240182664566225</v>
+        <v>0.1195193998599705</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02519433859119572</v>
+        <v>0.01871868724769703</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1375379393.189693</v>
+        <v>1246480086.76135</v>
       </c>
       <c r="F87" t="n">
-        <v>0.128651697314012</v>
+        <v>0.133324205406412</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03820297154895201</v>
+        <v>0.03390439817758015</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2833505273.335916</v>
+        <v>3541321843.55275</v>
       </c>
       <c r="F88" t="n">
-        <v>0.151817514873448</v>
+        <v>0.1743764002297227</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03207781964976113</v>
+        <v>0.03415824017028165</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2572294149.686787</v>
+        <v>3338900066.324429</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1530056394615981</v>
+        <v>0.1107359183916175</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03685338377795004</v>
+        <v>0.0331246483494754</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1449713437.671169</v>
+        <v>2167968895.787613</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0976614884863593</v>
+        <v>0.09795452065289552</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04224632627514819</v>
+        <v>0.05334087297607801</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1758035410.611743</v>
+        <v>2044581692.873848</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1275786864902528</v>
+        <v>0.1469944629041878</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05302974496307078</v>
+        <v>0.04773538264224397</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2655326242.359407</v>
+        <v>1836564152.356699</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06972666891680258</v>
+        <v>0.09599024595429756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04558279862485935</v>
+        <v>0.04515659698051155</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3557659383.341707</v>
+        <v>4918118966.773994</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1051029995667071</v>
+        <v>0.139635257394904</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05238673079233598</v>
+        <v>0.04124094908801337</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>21</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.3141284583467</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1628282327.797695</v>
+        <v>2153047847.581772</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1146673536750543</v>
+        <v>0.146603237824956</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0350298028584182</v>
+        <v>0.02747352423547756</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2746392183.502021</v>
+        <v>2021278860.350371</v>
       </c>
       <c r="F95" t="n">
-        <v>0.134156694778614</v>
+        <v>0.1047396542695043</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04329613364236135</v>
+        <v>0.04068642328763758</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2205582750.897268</v>
+        <v>2328317322.891786</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1130005603761349</v>
+        <v>0.09489620933805179</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04734443920017768</v>
+        <v>0.04196012848467476</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3641480021.27388</v>
+        <v>5010540767.016021</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1479802426849381</v>
+        <v>0.1243570128999833</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02541605864650493</v>
+        <v>0.02660689842808803</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>22</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3676810088.388684</v>
+        <v>3510177875.893125</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1205630284884117</v>
+        <v>0.1158221534182888</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03076958583290403</v>
+        <v>0.02603006916857371</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21</v>
+      </c>
+      <c r="K98" t="n">
+        <v>129.465459871377</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3089559926.400499</v>
+        <v>2418326109.978377</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0944428540742977</v>
+        <v>0.09328555210281181</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03474756774051001</v>
+        <v>0.03110183631583289</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3547705060.105473</v>
+        <v>3614545995.15526</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1452577462437113</v>
+        <v>0.1700585507409514</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02220481849645784</v>
+        <v>0.01835009438280698</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>20</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3446671761.502024</v>
+        <v>3554535719.744522</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1889303724032467</v>
+        <v>0.1668241688743785</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05048113929143491</v>
+        <v>0.05393356643784439</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
